--- a/public/files/1001.xlsx
+++ b/public/files/1001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DownloadsNew\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD7D397A-151F-4499-AA13-1FD26F2DAD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE8B1B6-D796-48D7-98D8-15918E77B334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29535" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1001" sheetId="1" r:id="rId1"/>
@@ -56,156 +56,6 @@
     <t>Premium</t>
   </si>
   <si>
-    <t>Name1</t>
-  </si>
-  <si>
-    <t>Name2</t>
-  </si>
-  <si>
-    <t>Name3</t>
-  </si>
-  <si>
-    <t>Name4</t>
-  </si>
-  <si>
-    <t>Name5</t>
-  </si>
-  <si>
-    <t>Name6</t>
-  </si>
-  <si>
-    <t>Name7</t>
-  </si>
-  <si>
-    <t>Name8</t>
-  </si>
-  <si>
-    <t>Name9</t>
-  </si>
-  <si>
-    <t>Name10</t>
-  </si>
-  <si>
-    <t>Name11</t>
-  </si>
-  <si>
-    <t>Name12</t>
-  </si>
-  <si>
-    <t>Name13</t>
-  </si>
-  <si>
-    <t>Name14</t>
-  </si>
-  <si>
-    <t>Name15</t>
-  </si>
-  <si>
-    <t>Name16</t>
-  </si>
-  <si>
-    <t>Name17</t>
-  </si>
-  <si>
-    <t>Name18</t>
-  </si>
-  <si>
-    <t>Name19</t>
-  </si>
-  <si>
-    <t>Name20</t>
-  </si>
-  <si>
-    <t>Name21</t>
-  </si>
-  <si>
-    <t>Name22</t>
-  </si>
-  <si>
-    <t>Name23</t>
-  </si>
-  <si>
-    <t>Name24</t>
-  </si>
-  <si>
-    <t>Name25</t>
-  </si>
-  <si>
-    <t>Name26</t>
-  </si>
-  <si>
-    <t>Name27</t>
-  </si>
-  <si>
-    <t>Name28</t>
-  </si>
-  <si>
-    <t>Name29</t>
-  </si>
-  <si>
-    <t>Name30</t>
-  </si>
-  <si>
-    <t>Name31</t>
-  </si>
-  <si>
-    <t>Name32</t>
-  </si>
-  <si>
-    <t>Name33</t>
-  </si>
-  <si>
-    <t>Name34</t>
-  </si>
-  <si>
-    <t>Name35</t>
-  </si>
-  <si>
-    <t>Name36</t>
-  </si>
-  <si>
-    <t>Name37</t>
-  </si>
-  <si>
-    <t>Name38</t>
-  </si>
-  <si>
-    <t>Name39</t>
-  </si>
-  <si>
-    <t>Name40</t>
-  </si>
-  <si>
-    <t>Name41</t>
-  </si>
-  <si>
-    <t>Name42</t>
-  </si>
-  <si>
-    <t>Name43</t>
-  </si>
-  <si>
-    <t>Name44</t>
-  </si>
-  <si>
-    <t>Name45</t>
-  </si>
-  <si>
-    <t>Name46</t>
-  </si>
-  <si>
-    <t>Name47</t>
-  </si>
-  <si>
-    <t>Name48</t>
-  </si>
-  <si>
-    <t>Name49</t>
-  </si>
-  <si>
-    <t>Name50</t>
-  </si>
-  <si>
     <t>PolicyType</t>
   </si>
   <si>
@@ -213,6 +63,156 @@
   </si>
   <si>
     <t>PolicyNumber</t>
+  </si>
+  <si>
+    <t>Name Elementary1</t>
+  </si>
+  <si>
+    <t>Name Elementary2</t>
+  </si>
+  <si>
+    <t>Name Elementary3</t>
+  </si>
+  <si>
+    <t>Name Elementary4</t>
+  </si>
+  <si>
+    <t>Name Elementary5</t>
+  </si>
+  <si>
+    <t>Name Elementary6</t>
+  </si>
+  <si>
+    <t>Name Elementary7</t>
+  </si>
+  <si>
+    <t>Name Elementary8</t>
+  </si>
+  <si>
+    <t>Name Elementary9</t>
+  </si>
+  <si>
+    <t>Name Elementary10</t>
+  </si>
+  <si>
+    <t>Name Elementary11</t>
+  </si>
+  <si>
+    <t>Name Elementary12</t>
+  </si>
+  <si>
+    <t>Name Elementary13</t>
+  </si>
+  <si>
+    <t>Name Elementary14</t>
+  </si>
+  <si>
+    <t>Name Elementary15</t>
+  </si>
+  <si>
+    <t>Name Elementary16</t>
+  </si>
+  <si>
+    <t>Name Elementary17</t>
+  </si>
+  <si>
+    <t>Name Elementary18</t>
+  </si>
+  <si>
+    <t>Name Elementary19</t>
+  </si>
+  <si>
+    <t>Name Elementary20</t>
+  </si>
+  <si>
+    <t>Name Elementary21</t>
+  </si>
+  <si>
+    <t>Name Elementary22</t>
+  </si>
+  <si>
+    <t>Name Elementary23</t>
+  </si>
+  <si>
+    <t>Name Elementary24</t>
+  </si>
+  <si>
+    <t>Name Elementary25</t>
+  </si>
+  <si>
+    <t>Name Elementary26</t>
+  </si>
+  <si>
+    <t>Name Elementary27</t>
+  </si>
+  <si>
+    <t>Name Elementary28</t>
+  </si>
+  <si>
+    <t>Name Elementary29</t>
+  </si>
+  <si>
+    <t>Name Elementary30</t>
+  </si>
+  <si>
+    <t>Name Elementary31</t>
+  </si>
+  <si>
+    <t>Name Elementary32</t>
+  </si>
+  <si>
+    <t>Name Elementary33</t>
+  </si>
+  <si>
+    <t>Name Elementary34</t>
+  </si>
+  <si>
+    <t>Name Elementary35</t>
+  </si>
+  <si>
+    <t>Name Elementary36</t>
+  </si>
+  <si>
+    <t>Name Elementary37</t>
+  </si>
+  <si>
+    <t>Name Elementary38</t>
+  </si>
+  <si>
+    <t>Name Elementary39</t>
+  </si>
+  <si>
+    <t>Name Elementary40</t>
+  </si>
+  <si>
+    <t>Name Elementary41</t>
+  </si>
+  <si>
+    <t>Name Elementary42</t>
+  </si>
+  <si>
+    <t>Name Elementary43</t>
+  </si>
+  <si>
+    <t>Name Elementary44</t>
+  </si>
+  <si>
+    <t>Name Elementary45</t>
+  </si>
+  <si>
+    <t>Name Elementary46</t>
+  </si>
+  <si>
+    <t>Name Elementary47</t>
+  </si>
+  <si>
+    <t>Name Elementary48</t>
+  </si>
+  <si>
+    <t>Name Elementary49</t>
+  </si>
+  <si>
+    <t>Name Elementary50</t>
   </si>
 </sst>
 </file>
@@ -543,13 +543,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
@@ -567,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -588,18 +588,18 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>4564654</v>
+        <v>999999999</v>
       </c>
       <c r="C2">
-        <v>2038771</v>
+        <v>888888889</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -611,7 +611,7 @@
         <v>45338</v>
       </c>
       <c r="G2">
-        <v>150</v>
+        <v>-150</v>
       </c>
       <c r="H2">
         <v>250</v>
@@ -622,13 +622,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>7527390</v>
+        <v>999999998</v>
       </c>
       <c r="C3">
-        <v>2491122</v>
+        <v>888888888</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -651,13 +651,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>1573544</v>
+        <v>999999997</v>
       </c>
       <c r="C4">
-        <v>5388872</v>
+        <v>888888887</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -680,13 +680,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>5787710</v>
+        <v>999999996</v>
       </c>
       <c r="C5">
-        <v>4656606</v>
+        <v>888888886</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -704,18 +704,18 @@
         <v>253</v>
       </c>
       <c r="I5">
-        <v>353</v>
+        <v>-353</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>124994</v>
+        <v>999999995</v>
       </c>
       <c r="C6">
-        <v>8819246</v>
+        <v>888888885</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -738,13 +738,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>2898692</v>
+        <v>999999994</v>
       </c>
       <c r="C7">
-        <v>3108357</v>
+        <v>888888884</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -767,13 +767,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>1285914</v>
+        <v>999999993</v>
       </c>
       <c r="C8">
-        <v>7468771</v>
+        <v>888888883</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -796,13 +796,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>9098468</v>
+        <v>999999992</v>
       </c>
       <c r="C9">
-        <v>2649434</v>
+        <v>888888882</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -826,13 +826,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>3363763</v>
+        <v>999999991</v>
       </c>
       <c r="C10">
-        <v>3033212</v>
+        <v>888888881</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -844,7 +844,7 @@
         <v>45346</v>
       </c>
       <c r="G10">
-        <v>158</v>
+        <v>-158</v>
       </c>
       <c r="H10">
         <v>258</v>
@@ -855,13 +855,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>1817568</v>
+        <v>999999990</v>
       </c>
       <c r="C11">
-        <v>9806222</v>
+        <v>888888880</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -879,18 +879,18 @@
         <v>259</v>
       </c>
       <c r="I11">
-        <v>359</v>
+        <v>-359</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>9047047</v>
+        <v>999999989</v>
       </c>
       <c r="C12">
-        <v>5149979</v>
+        <v>888888879</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -913,13 +913,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>4013778</v>
+        <v>999999988</v>
       </c>
       <c r="C13">
-        <v>2803146</v>
+        <v>888888878</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -942,13 +942,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>6828304</v>
+        <v>999999987</v>
       </c>
       <c r="C14">
-        <v>2135716</v>
+        <v>888888877</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -971,13 +971,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>6532381</v>
+        <v>999999986</v>
       </c>
       <c r="C15">
-        <v>5452831</v>
+        <v>888888876</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1000,13 +1000,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>4342086</v>
+        <v>999999985</v>
       </c>
       <c r="C16">
-        <v>5148785</v>
+        <v>888888875</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1021,7 +1021,7 @@
         <v>164</v>
       </c>
       <c r="H16">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="I16">
         <v>364</v>
@@ -1029,13 +1029,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>5362535</v>
+        <v>999999984</v>
       </c>
       <c r="C17">
-        <v>8833181</v>
+        <v>888888874</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1058,13 +1058,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18">
-        <v>4613887</v>
+        <v>999999983</v>
       </c>
       <c r="C18">
-        <v>1537419</v>
+        <v>888888873</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19">
-        <v>7549371</v>
+        <v>999999982</v>
       </c>
       <c r="C19">
-        <v>2905093</v>
+        <v>888888872</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1111,18 +1111,18 @@
         <v>267</v>
       </c>
       <c r="I19">
-        <v>367</v>
+        <v>-367</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>8735835</v>
+        <v>999999981</v>
       </c>
       <c r="C20">
-        <v>8049461</v>
+        <v>888888871</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1145,13 +1145,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>6421022</v>
+        <v>999999980</v>
       </c>
       <c r="C21">
-        <v>9911131</v>
+        <v>888888870</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1163,7 +1163,7 @@
         <v>45357</v>
       </c>
       <c r="G21">
-        <v>169</v>
+        <v>-169</v>
       </c>
       <c r="H21">
         <v>269</v>
@@ -1174,13 +1174,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>713674</v>
+        <v>999999979</v>
       </c>
       <c r="C22">
-        <v>4226627</v>
+        <v>888888869</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1203,13 +1203,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>3952531</v>
+        <v>999999978</v>
       </c>
       <c r="C23">
-        <v>7742115</v>
+        <v>888888868</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>7479586</v>
+        <v>999999977</v>
       </c>
       <c r="C24">
-        <v>2132601</v>
+        <v>888888867</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1261,13 +1261,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>5845174</v>
+        <v>999999976</v>
       </c>
       <c r="C25">
-        <v>741502</v>
+        <v>888888866</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1282,21 +1282,21 @@
         <v>173</v>
       </c>
       <c r="H25">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="I25">
-        <v>373</v>
+        <v>-373</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>2583533</v>
+        <v>999999975</v>
       </c>
       <c r="C26">
-        <v>2478745</v>
+        <v>888888865</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1319,13 +1319,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B27">
-        <v>9561396</v>
+        <v>999999974</v>
       </c>
       <c r="C27">
-        <v>4785837</v>
+        <v>888888864</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1348,13 +1348,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>7459428</v>
+        <v>999999973</v>
       </c>
       <c r="C28">
-        <v>9122635</v>
+        <v>888888863</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>626388</v>
+        <v>999999972</v>
       </c>
       <c r="C29">
-        <v>9675671</v>
+        <v>888888862</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1406,13 +1406,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>5009540</v>
+        <v>999999971</v>
       </c>
       <c r="C30">
-        <v>5050358</v>
+        <v>888888861</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1435,13 +1435,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>4597968</v>
+        <v>999999970</v>
       </c>
       <c r="C31">
-        <v>7964198</v>
+        <v>888888860</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -1453,24 +1453,24 @@
         <v>45367</v>
       </c>
       <c r="G31">
-        <v>179</v>
+        <v>-179</v>
       </c>
       <c r="H31">
         <v>279</v>
       </c>
       <c r="I31">
-        <v>379</v>
+        <v>-379</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>813880</v>
+        <v>999999969</v>
       </c>
       <c r="C32">
-        <v>7211498</v>
+        <v>888888859</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1493,13 +1493,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>8995863</v>
+        <v>999999968</v>
       </c>
       <c r="C33">
-        <v>1211754</v>
+        <v>888888858</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -1522,13 +1522,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>7190945</v>
+        <v>999999967</v>
       </c>
       <c r="C34">
-        <v>6051503</v>
+        <v>888888857</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1546,18 +1546,18 @@
         <v>282</v>
       </c>
       <c r="I34">
-        <v>382</v>
+        <v>-382</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>2086807</v>
+        <v>999999966</v>
       </c>
       <c r="C35">
-        <v>9771708</v>
+        <v>888888856</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -1580,13 +1580,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>9047906</v>
+        <v>999999965</v>
       </c>
       <c r="C36">
-        <v>8100997</v>
+        <v>888888855</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -1601,7 +1601,7 @@
         <v>184</v>
       </c>
       <c r="H36">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="I36">
         <v>384</v>
@@ -1609,13 +1609,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B37">
-        <v>8155590</v>
+        <v>999999964</v>
       </c>
       <c r="C37">
-        <v>7183751</v>
+        <v>888888854</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -1638,13 +1638,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>7568055</v>
+        <v>999999963</v>
       </c>
       <c r="C38">
-        <v>5721391</v>
+        <v>888888853</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -1667,13 +1667,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>982726</v>
+        <v>999999962</v>
       </c>
       <c r="C39">
-        <v>4122784</v>
+        <v>888888852</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -1696,13 +1696,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>312260</v>
+        <v>999999961</v>
       </c>
       <c r="C40">
-        <v>6416746</v>
+        <v>888888851</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -1725,13 +1725,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>9493588</v>
+        <v>999999960</v>
       </c>
       <c r="C41">
-        <v>8720762</v>
+        <v>888888850</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -1743,7 +1743,7 @@
         <v>45377</v>
       </c>
       <c r="G41">
-        <v>189</v>
+        <v>-189</v>
       </c>
       <c r="H41">
         <v>289</v>
@@ -1754,13 +1754,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B42">
-        <v>7395372</v>
+        <v>999999959</v>
       </c>
       <c r="C42">
-        <v>4601474</v>
+        <v>888888849</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -1783,13 +1783,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>5518503</v>
+        <v>999999958</v>
       </c>
       <c r="C43">
-        <v>8472368</v>
+        <v>888888848</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -1812,13 +1812,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>7090430</v>
+        <v>999999957</v>
       </c>
       <c r="C44">
-        <v>9632828</v>
+        <v>888888847</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B45">
-        <v>1875228</v>
+        <v>999999956</v>
       </c>
       <c r="C45">
-        <v>4851530</v>
+        <v>888888846</v>
       </c>
       <c r="D45">
         <v>5</v>
@@ -1865,18 +1865,18 @@
         <v>293</v>
       </c>
       <c r="I45">
-        <v>393</v>
+        <v>-393</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>7879018</v>
+        <v>999999955</v>
       </c>
       <c r="C46">
-        <v>7811664</v>
+        <v>888888845</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -1891,7 +1891,7 @@
         <v>194</v>
       </c>
       <c r="H46">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="I46">
         <v>394</v>
@@ -1899,13 +1899,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>3987489</v>
+        <v>999999954</v>
       </c>
       <c r="C47">
-        <v>1781332</v>
+        <v>888888844</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -1928,13 +1928,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>6138037</v>
+        <v>999999953</v>
       </c>
       <c r="C48">
-        <v>7778745</v>
+        <v>888888843</v>
       </c>
       <c r="D48">
         <v>5</v>
@@ -1957,13 +1957,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>7893926</v>
+        <v>999999952</v>
       </c>
       <c r="C49">
-        <v>9738166</v>
+        <v>888888842</v>
       </c>
       <c r="D49">
         <v>5</v>
@@ -1975,7 +1975,7 @@
         <v>45385</v>
       </c>
       <c r="G49">
-        <v>197</v>
+        <v>-197</v>
       </c>
       <c r="H49">
         <v>297</v>
@@ -1986,13 +1986,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>245738</v>
+        <v>999999951</v>
       </c>
       <c r="C50">
-        <v>4125911</v>
+        <v>888888841</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -2015,13 +2015,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>143078</v>
+        <v>999999950</v>
       </c>
       <c r="C51">
-        <v>5767267</v>
+        <v>888888840</v>
       </c>
       <c r="D51">
         <v>5</v>
@@ -2036,10 +2036,10 @@
         <v>199</v>
       </c>
       <c r="H51">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="I51">
-        <v>399</v>
+        <v>-399</v>
       </c>
     </row>
   </sheetData>
